--- a/DocumentUnderstandingProcess/contentFiles/any/any/pt1/CSharp/Data/Config.xlsx
+++ b/DocumentUnderstandingProcess/contentFiles/any/any/pt1/CSharp/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\StudioTemplates\DocumentUnderstandingProcess\contentFiles\any\any\pt0\VisualBasic\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teodora.patrascu\PycharmProjects\StudioTemplates\DocumentUnderstandingProcess\contentFiles\any\any\pt1\CSharp\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C33BFE4-0375-40D1-AE4D-0F53C92287BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3C2F77-1D76-46B9-8AB0-2C1567CD621B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="30000" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16848" yWindow="-17388" windowWidth="30936" windowHeight="17040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -591,12 +591,6 @@
     <t>Waiting on classification validation action #</t>
   </si>
   <si>
-    <t>Resuming after classification validation action #{0}. Document(s) classified as: {1}</t>
-  </si>
-  <si>
-    <t>Resuming after data validation action #{0}. Document: {1}</t>
-  </si>
-  <si>
     <t>Data extraction finished</t>
   </si>
   <si>
@@ -646,6 +640,12 @@
   </si>
   <si>
     <t>Auxiliary folder where the job will download files when resuming after a human-in-the-loop action. Only used if downloading the files is enabled</t>
+  </si>
+  <si>
+    <t>Resuming after data validation{0}. Document: {1}</t>
+  </si>
+  <si>
+    <t>Resuming after classification validation{0}. Document(s) classified as: {1}</t>
   </si>
 </sst>
 </file>
@@ -1049,7 +1049,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1008"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1129,7 +1129,7 @@
         <v>116</v>
       </c>
       <c r="C3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1296,7 +1296,7 @@
         <v>174</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1307,29 +1307,29 @@
         <v>174</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>193</v>
-      </c>
       <c r="C25" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2331,8 +2331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1018"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2507,7 +2507,7 @@
         <v>76</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2547,7 +2547,7 @@
         <v>48</v>
       </c>
       <c r="B23" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2587,7 +2587,7 @@
         <v>77</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2619,7 +2619,7 @@
         <v>60</v>
       </c>
       <c r="B32" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2760,7 +2760,7 @@
         <v>104</v>
       </c>
       <c r="B54" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2769,7 +2769,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2794,7 +2794,7 @@
         <v>31</v>
       </c>
       <c r="B60" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3836,7 +3836,7 @@
         <v>176</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3847,29 +3847,29 @@
         <v>181</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/DocumentUnderstandingProcess/contentFiles/any/any/pt1/CSharp/Data/Config.xlsx
+++ b/DocumentUnderstandingProcess/contentFiles/any/any/pt1/CSharp/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cosmin.pandelache\PycharmProjects\StudioTemplates\DocumentUnderstandingProcess\contentFiles\any\any\pt1\CSharp\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46775284-443B-4DA2-A86B-4D776EFB5475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E51A4105-8E6D-44D0-9A8E-30C6C0D3B572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -1085,8 +1085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3799,8 +3799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AA1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/DocumentUnderstandingProcess/contentFiles/any/any/pt1/CSharp/Data/Config.xlsx
+++ b/DocumentUnderstandingProcess/contentFiles/any/any/pt1/CSharp/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexandru.hojda\PycharmProjects\StudioTemplates\DocumentUnderstandingProcess\contentFiles\any\any\pt1\CSharp\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B4F304-D80C-4FD4-A9B8-C17990EA4807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{680B1E56-27EF-4495-AACA-EDB47B7343D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="240">
   <si>
     <t>Name</t>
   </si>
@@ -746,6 +746,15 @@
   </si>
   <si>
     <t>otherReceipt-Confidence</t>
+  </si>
+  <si>
+    <t>ClassificationThreshold</t>
+  </si>
+  <si>
+    <t>Classification threshold for Classification Business Rule Validation must be a value between 0 and 1.</t>
+  </si>
+  <si>
+    <t>DU_ClassificationThreshold</t>
   </si>
 </sst>
 </file>
@@ -817,7 +826,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
@@ -829,6 +838,10 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1144,10 +1157,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1002"/>
+  <dimension ref="A1:Z1004"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="A22" sqref="A22:Z22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1378,64 +1391,78 @@
         <v>190</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="3"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="3"/>
+    </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" t="s">
-        <v>210</v>
-      </c>
-    </row>
+      <c r="A22" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="B22" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="24" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>37</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B24" s="3"/>
       <c r="C24" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>119</v>
+        <v>36</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>78</v>
-      </c>
-      <c r="B26" s="3"/>
+        <v>37</v>
+      </c>
       <c r="C26" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
+        <v>119</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>79</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C29" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="3"/>
-    </row>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="3"/>
+    </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2408,6 +2435,8 @@
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="1001" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="1002" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="1003" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="1004" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B11" r:id="rId1" xr:uid="{EF98B574-7169-43E5-821B-D4670F472688}"/>
@@ -3860,8 +3889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AA1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:AA14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4035,7 +4064,41 @@
         <v>208</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="9"/>
+    </row>
     <row r="15" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5240,7 +5303,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F017AAC-1C26-4588-B388-B31794AC3182}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
